--- a/natmiOut/YoungD4/LR-pairs_lrc2p/C1qa-Cd93.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/C1qa-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>C1qa</t>
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>85.7276312762786</v>
+        <v>0.7647263333333334</v>
       </c>
       <c r="H2">
-        <v>85.7276312762786</v>
+        <v>2.294179</v>
       </c>
       <c r="I2">
-        <v>0.5737149491147638</v>
+        <v>0.004061943890521526</v>
       </c>
       <c r="J2">
-        <v>0.5737149491147638</v>
+        <v>0.004061943890521526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N2">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q2">
-        <v>19313.43534336878</v>
+        <v>175.5694280939342</v>
       </c>
       <c r="R2">
-        <v>19313.43534336878</v>
+        <v>1580.124852845408</v>
       </c>
       <c r="S2">
-        <v>0.2896616716749701</v>
+        <v>0.002044452465034952</v>
       </c>
       <c r="T2">
-        <v>0.2896616716749701</v>
+        <v>0.002044452465034952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>85.7276312762786</v>
+        <v>0.7647263333333334</v>
       </c>
       <c r="H3">
-        <v>85.7276312762786</v>
+        <v>2.294179</v>
       </c>
       <c r="I3">
-        <v>0.5737149491147638</v>
+        <v>0.004061943890521526</v>
       </c>
       <c r="J3">
-        <v>0.5737149491147638</v>
+        <v>0.004061943890521526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N3">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q3">
-        <v>11609.60961867248</v>
+        <v>103.7950202281845</v>
       </c>
       <c r="R3">
-        <v>11609.60961867248</v>
+        <v>934.155182053661</v>
       </c>
       <c r="S3">
-        <v>0.1741201847237971</v>
+        <v>0.001208661367002517</v>
       </c>
       <c r="T3">
-        <v>0.1741201847237971</v>
+        <v>0.001208661367002517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>85.7276312762786</v>
+        <v>0.7647263333333334</v>
       </c>
       <c r="H4">
-        <v>85.7276312762786</v>
+        <v>2.294179</v>
       </c>
       <c r="I4">
-        <v>0.5737149491147638</v>
+        <v>0.004061943890521526</v>
       </c>
       <c r="J4">
-        <v>0.5737149491147638</v>
+        <v>0.004061943890521526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N4">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q4">
-        <v>7279.900644951864</v>
+        <v>69.00239522435946</v>
       </c>
       <c r="R4">
-        <v>7279.900644951864</v>
+        <v>621.0215570192352</v>
       </c>
       <c r="S4">
-        <v>0.1091834856385853</v>
+        <v>0.000803511855915373</v>
       </c>
       <c r="T4">
-        <v>0.1091834856385853</v>
+        <v>0.000803511855915373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>85.7276312762786</v>
+        <v>0.7647263333333334</v>
       </c>
       <c r="H5">
-        <v>85.7276312762786</v>
+        <v>2.294179</v>
       </c>
       <c r="I5">
-        <v>0.5737149491147638</v>
+        <v>0.004061943890521526</v>
       </c>
       <c r="J5">
-        <v>0.5737149491147638</v>
+        <v>0.004061943890521526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N5">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q5">
-        <v>49.98068173395611</v>
+        <v>0.4567060371616666</v>
       </c>
       <c r="R5">
-        <v>49.98068173395611</v>
+        <v>4.110354334455</v>
       </c>
       <c r="S5">
-        <v>0.0007496070774111757</v>
+        <v>5.318202568683842E-06</v>
       </c>
       <c r="T5">
-        <v>0.0007496070774111757</v>
+        <v>5.318202568683842E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.6978480642117</v>
+        <v>85.81035100000001</v>
       </c>
       <c r="H6">
-        <v>63.6978480642117</v>
+        <v>257.431053</v>
       </c>
       <c r="I6">
-        <v>0.426285050885236</v>
+        <v>0.4557928971383111</v>
       </c>
       <c r="J6">
-        <v>0.426285050885236</v>
+        <v>0.4557928971383111</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N6">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q6">
-        <v>14350.38215549403</v>
+        <v>19700.73945791905</v>
       </c>
       <c r="R6">
-        <v>14350.38215549403</v>
+        <v>177306.6551212715</v>
       </c>
       <c r="S6">
-        <v>0.2152261164538123</v>
+        <v>0.2294091049052378</v>
       </c>
       <c r="T6">
-        <v>0.2152261164538123</v>
+        <v>0.2294091049052378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.6978480642117</v>
+        <v>85.81035100000001</v>
       </c>
       <c r="H7">
-        <v>63.6978480642117</v>
+        <v>257.431053</v>
       </c>
       <c r="I7">
-        <v>0.426285050885236</v>
+        <v>0.4557928971383111</v>
       </c>
       <c r="J7">
-        <v>0.426285050885236</v>
+        <v>0.4557928971383111</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N7">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q7">
-        <v>8626.240321417075</v>
+        <v>11646.89475123687</v>
       </c>
       <c r="R7">
-        <v>8626.240321417075</v>
+        <v>104822.0527611318</v>
       </c>
       <c r="S7">
-        <v>0.1293758022510285</v>
+        <v>0.1356245386379517</v>
       </c>
       <c r="T7">
-        <v>0.1293758022510285</v>
+        <v>0.1356245386379517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>63.6978480642117</v>
+        <v>85.81035100000001</v>
       </c>
       <c r="H8">
-        <v>63.6978480642117</v>
+        <v>257.431053</v>
       </c>
       <c r="I8">
-        <v>0.426285050885236</v>
+        <v>0.4557928971383111</v>
       </c>
       <c r="J8">
-        <v>0.426285050885236</v>
+        <v>0.4557928971383111</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N8">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q8">
-        <v>5409.154531638311</v>
+        <v>7742.79568513574</v>
       </c>
       <c r="R8">
-        <v>5409.154531638311</v>
+        <v>69685.16116622166</v>
       </c>
       <c r="S8">
-        <v>0.08112615472733903</v>
+        <v>0.09016249523959498</v>
       </c>
       <c r="T8">
-        <v>0.08112615472733903</v>
+        <v>0.09016249523959498</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>85.81035100000001</v>
+      </c>
+      <c r="H9">
+        <v>257.431053</v>
+      </c>
+      <c r="I9">
+        <v>0.4557928971383111</v>
+      </c>
+      <c r="J9">
+        <v>0.4557928971383111</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.791645</v>
+      </c>
+      <c r="O9">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P9">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q9">
+        <v>51.247228772465</v>
+      </c>
+      <c r="R9">
+        <v>461.225058952185</v>
+      </c>
+      <c r="S9">
+        <v>0.000596758355526568</v>
+      </c>
+      <c r="T9">
+        <v>0.000596758355526568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>101.5788536666667</v>
+      </c>
+      <c r="H10">
+        <v>304.736561</v>
+      </c>
+      <c r="I10">
+        <v>0.5395493604346</v>
+      </c>
+      <c r="J10">
+        <v>0.5395493604346001</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>229.5846506666667</v>
+      </c>
+      <c r="N10">
+        <v>688.753952</v>
+      </c>
+      <c r="O10">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="P10">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="Q10">
+        <v>23320.94563418212</v>
+      </c>
+      <c r="R10">
+        <v>209888.5107076391</v>
+      </c>
+      <c r="S10">
+        <v>0.2715653021506709</v>
+      </c>
+      <c r="T10">
+        <v>0.271565302150671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>101.5788536666667</v>
+      </c>
+      <c r="H11">
+        <v>304.736561</v>
+      </c>
+      <c r="I11">
+        <v>0.5395493604346</v>
+      </c>
+      <c r="J11">
+        <v>0.5395493604346001</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>135.7283196666666</v>
+      </c>
+      <c r="N11">
+        <v>407.1849589999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="P11">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="Q11">
+        <v>13787.12712184288</v>
+      </c>
+      <c r="R11">
+        <v>124084.144096586</v>
+      </c>
+      <c r="S11">
+        <v>0.1605468921099469</v>
+      </c>
+      <c r="T11">
+        <v>0.1605468921099469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>101.5788536666667</v>
+      </c>
+      <c r="H12">
+        <v>304.736561</v>
+      </c>
+      <c r="I12">
+        <v>0.5395493604346</v>
+      </c>
+      <c r="J12">
+        <v>0.5395493604346001</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>90.23148833333335</v>
+      </c>
+      <c r="N12">
+        <v>270.694465</v>
+      </c>
+      <c r="O12">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="P12">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="Q12">
+        <v>9165.611149537208</v>
+      </c>
+      <c r="R12">
+        <v>82490.50034583488</v>
+      </c>
+      <c r="S12">
+        <v>0.1067307475547367</v>
+      </c>
+      <c r="T12">
+        <v>0.1067307475547367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>101.5788536666667</v>
+      </c>
+      <c r="H13">
+        <v>304.736561</v>
+      </c>
+      <c r="I13">
+        <v>0.5395493604346</v>
+      </c>
+      <c r="J13">
+        <v>0.5395493604346001</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.791645</v>
+      </c>
+      <c r="O13">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P13">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q13">
+        <v>60.66441509253832</v>
+      </c>
+      <c r="R13">
+        <v>545.979735832845</v>
+      </c>
+      <c r="S13">
+        <v>0.0007064186192455253</v>
+      </c>
+      <c r="T13">
+        <v>0.0007064186192455254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>63.6978480642117</v>
-      </c>
-      <c r="H9">
-        <v>63.6978480642117</v>
-      </c>
-      <c r="I9">
-        <v>0.426285050885236</v>
-      </c>
-      <c r="J9">
-        <v>0.426285050885236</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="N9">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="O9">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="P9">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="Q9">
-        <v>37.13693967555356</v>
-      </c>
-      <c r="R9">
-        <v>37.13693967555356</v>
-      </c>
-      <c r="S9">
-        <v>0.0005569774530561086</v>
-      </c>
-      <c r="T9">
-        <v>0.0005569774530561086</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1121686666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.336506</v>
+      </c>
+      <c r="I14">
+        <v>0.0005957985365674766</v>
+      </c>
+      <c r="J14">
+        <v>0.0005957985365674766</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>229.5846506666667</v>
+      </c>
+      <c r="N14">
+        <v>688.753952</v>
+      </c>
+      <c r="O14">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="P14">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="Q14">
+        <v>25.75220415241245</v>
+      </c>
+      <c r="R14">
+        <v>231.769837371712</v>
+      </c>
+      <c r="S14">
+        <v>0.000299876566387824</v>
+      </c>
+      <c r="T14">
+        <v>0.000299876566387824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1121686666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.336506</v>
+      </c>
+      <c r="I15">
+        <v>0.0005957985365674766</v>
+      </c>
+      <c r="J15">
+        <v>0.0005957985365674766</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>135.7283196666666</v>
+      </c>
+      <c r="N15">
+        <v>407.1849589999999</v>
+      </c>
+      <c r="O15">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="P15">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="Q15">
+        <v>15.22446464591711</v>
+      </c>
+      <c r="R15">
+        <v>137.020181813254</v>
+      </c>
+      <c r="S15">
+        <v>0.0001772842493826981</v>
+      </c>
+      <c r="T15">
+        <v>0.0001772842493826981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1121686666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.336506</v>
+      </c>
+      <c r="I16">
+        <v>0.0005957985365674766</v>
+      </c>
+      <c r="J16">
+        <v>0.0005957985365674766</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>90.23148833333335</v>
+      </c>
+      <c r="N16">
+        <v>270.694465</v>
+      </c>
+      <c r="O16">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="P16">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="Q16">
+        <v>10.12114573769889</v>
+      </c>
+      <c r="R16">
+        <v>91.09031163929002</v>
+      </c>
+      <c r="S16">
+        <v>0.0001178576565240369</v>
+      </c>
+      <c r="T16">
+        <v>0.0001178576565240369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1121686666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.336506</v>
+      </c>
+      <c r="I17">
+        <v>0.0005957985365674766</v>
+      </c>
+      <c r="J17">
+        <v>0.0005957985365674766</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.791645</v>
+      </c>
+      <c r="O17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q17">
+        <v>0.06698881026333334</v>
+      </c>
+      <c r="R17">
+        <v>0.6028992923700001</v>
+      </c>
+      <c r="S17">
+        <v>7.800642729174684E-07</v>
+      </c>
+      <c r="T17">
+        <v>7.800642729174684E-07</v>
       </c>
     </row>
   </sheetData>
